--- a/biology/Zoologie/Architis_cymatilis/Architis_cymatilis.xlsx
+++ b/biology/Zoologie/Architis_cymatilis/Architis_cymatilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Architis cymatilis est une espèce d'araignées aranéomorphes de la famille des Pisauridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Architis cymatilis est une espèce d'araignées aranéomorphes de la famille des Pisauridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre à la Trinité, en Colombie, en Équateur, au Pérou et au Brésil en Acre, au Rondônia, au Mato Grosso et au Pará[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre à la Trinité, en Colombie, en Équateur, au Pérou et au Brésil en Acre, au Rondônia, au Mato Grosso et au Pará,.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 1,70 mm de long sur 1,42 mm et l'abdomen 2,5 mm et la carapace de la femelle paratype mesure 2,4 mm de long sur 2,2 mm et l'abdomen 4,5 mm[3].
-Le mâle décrit par Santos en 2007 mesure 3,1 mm et la femelle 4,0 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 1,70 mm de long sur 1,42 mm et l'abdomen 2,5 mm et la carapace de la femelle paratype mesure 2,4 mm de long sur 2,2 mm et l'abdomen 4,5 mm.
+Le mâle décrit par Santos en 2007 mesure 3,1 mm et la femelle 4,0 mm.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Carico, 1981 : The Neotropical spider genera Architis and Staberius (Pisauridae). Bulletin of the American Museum of Natural History, no 170, p. 140-153 (texte intégral).</t>
         </is>
